--- a/今日风格上榜.xlsx
+++ b/今日风格上榜.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>前日差</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>档位</t>
         </is>
       </c>
@@ -481,30 +486,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>周期</t>
+          <t>乡村振兴</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57.9</v>
+        <v>9.6</v>
       </c>
       <c r="D2" t="n">
-        <v>681.9</v>
+        <v>137.1</v>
       </c>
       <c r="E2" t="n">
+        <v>0.1059390048154093</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3744372090843314</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1864884660960859</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.6364164506635451</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8909249351990635</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -514,30 +522,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>地产基建</t>
+          <t>公用事业</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.6</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>523.4</v>
+        <v>295.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.29695885509839</v>
+        <v>0.3210272873194221</v>
       </c>
       <c r="F3" t="n">
-        <v>0.124843617089638</v>
+        <v>0.471562724802943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2453242836957644</v>
+        <v>0.3661879185644784</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4</t>
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -547,28 +558,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>汽车产业</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>403.5</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3935599284436494</v>
+        <v>0.04815409309791333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3729233408213541</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3873689521569608</v>
+        <v>0.3337078651685393</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -580,30 +594,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>高端制造</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>420.9</v>
+        <v>234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3935599284436494</v>
+        <v>0.3210272873194221</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3474458566431111</v>
+        <v>0.7282692021647844</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3797257069034878</v>
+        <v>0.4431998617730308</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -613,30 +630,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>医药生物</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>234</v>
+        <v>544.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3577817531305904</v>
+        <v>0.4173354735152488</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7307806711554582</v>
+        <v>0.1645091812961234</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4696814285380507</v>
+        <v>0.3414875858495112</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -646,30 +666,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>公用事业</t>
+          <t>周期</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>40.8</v>
       </c>
       <c r="D7" t="n">
-        <v>295.7</v>
+        <v>681.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3398926654740608</v>
+        <v>0.6067415730337078</v>
       </c>
       <c r="F7" t="n">
-        <v>0.492477025077461</v>
+        <v>0.2469034371832542</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3856679733550809</v>
+        <v>0.4987901322785717</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -679,30 +702,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>医药生物</t>
+          <t>地产基建</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>27.9</v>
       </c>
       <c r="D8" t="n">
-        <v>544.6</v>
+        <v>523.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6082289803220036</v>
+        <v>0.3996789727126805</v>
       </c>
       <c r="F8" t="n">
-        <v>0.441557352808034</v>
+        <v>0.1652003505040414</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5582274920678126</v>
+        <v>0.3293353860500888</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -716,24 +742,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>43.6</v>
+        <v>32.9</v>
       </c>
       <c r="D9" t="n">
         <v>661.9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.4799357945425361</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4391474486727094</v>
+        <v>0.1201411376482411</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6526744671599524</v>
+        <v>0.3719973974742475</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -749,24 +778,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>56.2</v>
+        <v>65.3</v>
       </c>
       <c r="D10" t="n">
         <v>1231.8</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9695885509838998</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2293633809112467</v>
+        <v>0.1615272042328539</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7475209999621039</v>
+        <v>0.7484581612698561</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -778,30 +810,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>新能源</t>
+          <t>大金融</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.3</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>638.7</v>
+        <v>170.3</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.09630818619582665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5564080619312858</v>
+        <v>0.1594752468476371</v>
       </c>
       <c r="G11" t="n">
-        <v>0.759230110887078</v>
+        <v>0.1152583043913698</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -811,30 +846,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>新能源</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>41.5</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>638.7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07155635062611806</v>
+        <v>0.6179775280898877</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.3112758952935063</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3500894454382826</v>
+        <v>0.5259670382509732</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>4</t>
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -844,28 +882,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>运输业</t>
+          <t>汽车产业</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>22.6</v>
       </c>
       <c r="D13" t="n">
-        <v>149.6</v>
+        <v>403.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03577817531305903</v>
+        <v>0.3146067415730338</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0336746127907567</v>
+        <v>0.1990531311532789</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03514710655636833</v>
+        <v>0.2799406584471073</v>
       </c>
       <c r="H13" t="n">
-        <v>14</v>
-      </c>
-      <c r="I13" t="inlineStr">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -877,28 +918,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>乡村振兴</t>
+          <t>社会服务</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>137.1</v>
+        <v>55.4</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06976744186046513</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2025272662045334</v>
+        <v>0.1757934264132341</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1095953891636856</v>
+        <v>0.05273802792397024</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
-      </c>
-      <c r="I14" t="inlineStr">
+        <v>14</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -910,28 +954,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>大金融</t>
+          <t>运输业</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>170.3</v>
+        <v>149.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03577817531305903</v>
+        <v>0.04815409309791333</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02504472271914132</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="H15" t="n">
         <v>15</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -939,30 +986,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>社会服务</t>
+          <t>高端制造</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>55.4</v>
+        <v>420.9</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.4173354735152488</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1306896106372118</v>
+        <v>0.3603946156050511</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03920688319116353</v>
+        <v>0.4002532161421895</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>4</t>
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/今日风格上榜.xlsx
+++ b/今日风格上榜.xlsx
@@ -490,22 +490,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.6</v>
+        <v>5.9</v>
       </c>
       <c r="D2" t="n">
         <v>137.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1059390048154093</v>
+        <v>0.06170212765957447</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3744372090843314</v>
+        <v>0.1565320802537684</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1864884660960859</v>
+        <v>0.09015111343783264</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -526,29 +526,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>34.3</v>
       </c>
       <c r="D3" t="n">
         <v>295.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3210272873194221</v>
+        <v>0.6659574468085105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.471562724802943</v>
+        <v>0.6058475769924596</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3661879185644784</v>
+        <v>0.6479244858636952</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -562,25 +562,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04815409309791333</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3337078651685393</v>
+        <v>0.3893617021276595</v>
       </c>
       <c r="H4" t="n">
         <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -598,29 +598,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
         <v>234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3210272873194221</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7282692021647844</v>
+        <v>0.2073238350087992</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4431998617730308</v>
+        <v>0.1962397036941291</v>
       </c>
       <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>-1</v>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -634,25 +634,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>544.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4173354735152488</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1645091812961234</v>
+        <v>0.2759826247012656</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3414875858495112</v>
+        <v>0.5444969150699541</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -670,29 +670,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40.8</v>
+        <v>38.1</v>
       </c>
       <c r="D7" t="n">
         <v>681.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6067415730337078</v>
+        <v>0.7468085106382979</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2469034371832542</v>
+        <v>0.2355978221356477</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4987901322785717</v>
+        <v>0.5934453040875028</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27.9</v>
+        <v>31.3</v>
       </c>
       <c r="D8" t="n">
         <v>523.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3996789727126805</v>
+        <v>0.6021276595744681</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1652003505040414</v>
+        <v>0.2597874178543257</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3293353860500888</v>
+        <v>0.4994255870584254</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -742,29 +742,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.9</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>661.9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4799357945425361</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1201411376482411</v>
+        <v>0.3567108208372004</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3719973974742475</v>
+        <v>0.8070132462511601</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>-4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -778,29 +778,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>65.3</v>
+        <v>41.3</v>
       </c>
       <c r="D10" t="n">
         <v>1231.8</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.8148936170212765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1615272042328539</v>
+        <v>0.0979911541846053</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7484581612698561</v>
+        <v>0.5998228781702751</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -814,31 +814,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>170.3</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09630818619582665</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1594752468476371</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1152583043913698</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -850,25 +846,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="D12" t="n">
         <v>638.7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6179775280898877</v>
+        <v>0.7702127659574469</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3112758952935063</v>
+        <v>0.2694765979600591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5259670382509732</v>
+        <v>0.6199919155582305</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -886,25 +882,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.6</v>
+        <v>18.3</v>
       </c>
       <c r="D13" t="n">
         <v>403.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3146067415730338</v>
+        <v>0.325531914893617</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1990531311532789</v>
+        <v>0.170812291989462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2799406584471073</v>
+        <v>0.2791160280223705</v>
       </c>
       <c r="H13" t="n">
         <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -922,25 +918,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="D14" t="n">
         <v>55.4</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.07659574468085105</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757934264132341</v>
+        <v>0.6251698724752153</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05273802792397024</v>
+        <v>0.2411679830191603</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -958,27 +954,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>149.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04815409309791333</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.5089872987400843</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03370786516853932</v>
+        <v>0.3314195938773444</v>
       </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -990,25 +990,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>32.3</v>
       </c>
       <c r="D16" t="n">
         <v>420.9</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4173354735152488</v>
+        <v>0.6234042553191489</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3603946156050511</v>
+        <v>0.3641019822676246</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4002532161421895</v>
+        <v>0.5456135734036915</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>

--- a/今日风格上榜.xlsx
+++ b/今日风格上榜.xlsx
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="D2" t="n">
         <v>137.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06170212765957447</v>
+        <v>0.08833333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1565320802537684</v>
+        <v>0.2194960491485451</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09015111343783264</v>
+        <v>0.1276821480778969</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -526,29 +526,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34.3</v>
+        <v>29.6</v>
       </c>
       <c r="D3" t="n">
         <v>295.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6659574468085105</v>
+        <v>0.46</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6058475769924596</v>
+        <v>0.6392325051156075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6479244858636952</v>
+        <v>0.5137697515346822</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -562,29 +562,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1276595744680851</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0.1008391129407591</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03025173388222772</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.3893617021276595</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-2</v>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -598,25 +598,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2073238350087992</v>
+        <v>0.2784693372219957</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1962397036941291</v>
+        <v>0.2235408011665987</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -634,29 +634,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
         <v>544.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.65</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2759826247012656</v>
+        <v>0.4169213526779471</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5444969150699541</v>
+        <v>0.580076405803384</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -670,29 +670,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.1</v>
+        <v>19.6</v>
       </c>
       <c r="D7" t="n">
         <v>681.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7468085106382979</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2355978221356477</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5934453040875028</v>
+        <v>0.2053333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31.3</v>
+        <v>35.4</v>
       </c>
       <c r="D8" t="n">
         <v>523.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6021276595744681</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2597874178543257</v>
+        <v>0.3483928209477932</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4994255870584254</v>
+        <v>0.4941845129510046</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
         <v>661.9</v>
@@ -751,16 +751,16 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3567108208372004</v>
+        <v>0.5816167086695507</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8070132462511601</v>
+        <v>0.8744850126008652</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -778,29 +778,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>41.3</v>
+        <v>45.9</v>
       </c>
       <c r="D10" t="n">
         <v>1231.8</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8148936170212765</v>
+        <v>0.7316666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0979911541846053</v>
+        <v>0.07631676178226005</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5998228781702751</v>
+        <v>0.5350616952013447</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>-6</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -813,27 +813,15 @@
           <t>大金融</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>170.3</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -846,29 +834,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39.2</v>
+        <v>30.9</v>
       </c>
       <c r="D12" t="n">
         <v>638.7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7702127659574469</v>
+        <v>0.4816666666666666</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2694765979600591</v>
+        <v>0.1759034977372758</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6199919155582305</v>
+        <v>0.3899377159878494</v>
       </c>
       <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -882,29 +870,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.3</v>
+        <v>24.3</v>
       </c>
       <c r="D13" t="n">
         <v>403.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.325531914893617</v>
+        <v>0.3716666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.170812291989462</v>
+        <v>0.2819987161174696</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2791160280223705</v>
+        <v>0.3447662815019075</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -918,31 +906,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>55.4</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07659574468085105</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6251698724752153</v>
+        <v>0.06591231856104869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2411679830191603</v>
+        <v>0.01977369556831461</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -954,29 +938,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
         <v>149.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5089872987400843</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3314195938773444</v>
+        <v>0.5216666666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -990,29 +974,29 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32.3</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>420.9</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6234042553191489</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3641019822676246</v>
+        <v>0.2107452766089576</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5456135734036915</v>
+        <v>0.2965569163160205</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/今日风格上榜.xlsx
+++ b/今日风格上榜.xlsx
@@ -496,19 +496,19 @@
         <v>137.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08833333333333333</v>
+        <v>0.06346153846153846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2194960491485451</v>
+        <v>0.3750682905410732</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1276821480778969</v>
+        <v>0.1569435640853989</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -526,29 +526,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29.6</v>
+        <v>16.3</v>
       </c>
       <c r="D3" t="n">
         <v>295.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.46</v>
+        <v>0.2365384615384616</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6392325051156075</v>
+        <v>0.398733965375867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5137697515346822</v>
+        <v>0.2851971126896832</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>50</v>
@@ -571,16 +571,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1008391129407591</v>
+        <v>0.7122785388127855</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03025173388222772</v>
+        <v>0.2136835616438356</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -598,29 +598,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>16.3</v>
       </c>
       <c r="D5" t="n">
         <v>234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.2365384615384616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2784693372219957</v>
+        <v>0.581929329443599</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2235408011665987</v>
+        <v>0.3401557219100028</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -634,25 +634,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
         <v>544.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4169213526779471</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.580076405803384</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -670,25 +670,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.6</v>
+        <v>22.3</v>
       </c>
       <c r="D7" t="n">
         <v>681.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2933333333333333</v>
+        <v>0.3519230769230769</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.1161432193332133</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2053333333333333</v>
+        <v>0.2811891196461179</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35.4</v>
+        <v>45.6</v>
       </c>
       <c r="D8" t="n">
         <v>523.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5566666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3483928209477932</v>
+        <v>0.8020526425682912</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4941845129510046</v>
+        <v>0.8006157927704873</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -742,29 +742,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>42.3</v>
       </c>
       <c r="D9" t="n">
         <v>661.9</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.7365384615384615</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5816167086695507</v>
+        <v>0.5094413095872935</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8744850126008652</v>
+        <v>0.668409315953111</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -778,29 +778,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45.9</v>
+        <v>33.6</v>
       </c>
       <c r="D10" t="n">
         <v>1231.8</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7316666666666667</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07631676178226005</v>
+        <v>0.04775904289746385</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5350616952013447</v>
+        <v>0.4127892513307776</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -813,15 +813,27 @@
           <t>大金融</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
       <c r="D11" t="n">
         <v>170.3</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -834,29 +846,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30.9</v>
+        <v>46.6</v>
       </c>
       <c r="D12" t="n">
         <v>638.7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4816666666666666</v>
+        <v>0.8192307692307692</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1759034977372758</v>
+        <v>0.6235551177846744</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3899377159878494</v>
+        <v>0.7605280737969407</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -870,29 +882,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D13" t="n">
         <v>403.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3716666666666667</v>
+        <v>0.3961538461538462</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2819987161174696</v>
+        <v>0.4723805684280809</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3447662815019075</v>
+        <v>0.4190218628361166</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -906,7 +918,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>55.4</v>
@@ -915,18 +927,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06591231856104869</v>
+        <v>0.6139945271417504</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01977369556831461</v>
+        <v>0.1841983581425251</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -938,29 +954,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>149.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.4622202840247765</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5216666666666666</v>
+        <v>0.2059737775151252</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -974,29 +990,29 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>29.6</v>
       </c>
       <c r="D16" t="n">
         <v>420.9</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2107452766089576</v>
+        <v>0.590340912583856</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2965569163160205</v>
+        <v>0.5217176583905414</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
